--- a/MATERIALCFS/PECÚLIO.xlsx
+++ b/MATERIALCFS/PECÚLIO.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\3ºPELOTÃO CFS\CFS MATERIAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UILLIAN LEITE\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E9E38FB-7170-4AAC-BF64-06E0B3A1FE2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4545"/>
   </bookViews>
   <sheets>
     <sheet name="DADOS" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="194">
   <si>
     <t>Nº</t>
   </si>
@@ -1237,12 +1236,69 @@
   </si>
   <si>
     <t xml:space="preserve">Simone Mafra </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Liege</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> espindola dos Santos </t>
+    </r>
+  </si>
+  <si>
+    <t>AL SGT Liege</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Av. Dos Goitacazes, 176 A, Beirol </t>
+  </si>
+  <si>
+    <t>Maria Rita ( Mãe)</t>
+  </si>
+  <si>
+    <t>AL SGT Wallison</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alameda décima, 386, Bairro Bone azul, Loteamento Jardim Carnã </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Wallison</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Costa de Andrade </t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1469,7 +1525,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1563,12 +1619,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1579,9 +1652,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1597,18 +1667,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:I42" totalsRowShown="0">
-  <autoFilter ref="A1:I42" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:I44" totalsRowShown="0">
+  <autoFilter ref="A1:I44"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nº" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{1532B4A6-A44D-40F9-A648-058DAF89F272}" name="CURSO" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="NOME COMPLETO"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="NOME DE GUERRA" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="CPF"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="ENDEREÇO"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="WPP"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="CTT DE EMERGÊNCIA"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Nº DO CONTATO" dataDxfId="3"/>
+    <tableColumn id="1" name="Nº" dataDxfId="3"/>
+    <tableColumn id="9" name="CURSO" dataDxfId="2"/>
+    <tableColumn id="2" name="NOME COMPLETO"/>
+    <tableColumn id="3" name="NOME DE GUERRA" dataDxfId="1"/>
+    <tableColumn id="4" name="CPF"/>
+    <tableColumn id="5" name="ENDEREÇO"/>
+    <tableColumn id="6" name="WPP"/>
+    <tableColumn id="7" name="CTT DE EMERGÊNCIA"/>
+    <tableColumn id="8" name="Nº DO CONTATO" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1876,14 +1946,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L37" sqref="L37"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3109,13 +3179,67 @@
       <c r="H42" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="I42" s="29" t="s">
+      <c r="I42" s="37"/>
+    </row>
+    <row r="43" spans="1:9" s="39" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="38">
+        <v>252</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="39" t="s">
+        <v>187</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="E43" s="10">
+        <v>69940177291</v>
+      </c>
+      <c r="F43" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="G43" s="23">
+        <v>9984171551</v>
+      </c>
+      <c r="H43" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="I43" s="29">
+        <v>984097066</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" s="39" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="38"/>
+      <c r="B44" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="39" t="s">
+        <v>193</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="E44" s="10">
+        <v>86841998200</v>
+      </c>
+      <c r="F44" s="40" t="s">
+        <v>192</v>
+      </c>
+      <c r="G44" s="23">
+        <v>991091538</v>
+      </c>
+      <c r="H44" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="I44" s="42" t="s">
         <v>168</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H43:H1048576 G1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1 H45:H1048576">
       <formula1>"SIM,NÃO"</formula1>
     </dataValidation>
   </dataValidations>
